--- a/documents/BugList.xlsx
+++ b/documents/BugList.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Movie API Bug List</t>
+  </si>
+  <si>
+    <t>Num</t>
   </si>
   <si>
     <t>Description</t>
@@ -147,13 +150,19 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -304,41 +313,47 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -348,7 +363,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
@@ -1435,7 +1453,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1443,15 +1461,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="59.7734" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3203" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.0781" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.9531" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.3125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.8828" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.0312" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.0781" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.9531" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1" ht="28.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1459,15 +1478,16 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" ht="42.1" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="4">
         <v>3</v>
       </c>
       <c r="D2" t="s" s="3">
@@ -1476,10 +1496,13 @@
       <c r="E2" t="s" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="50.2" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="F2" t="s" s="3">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="36.2" customHeight="1">
+      <c r="A3" s="5">
+        <v>1</v>
       </c>
       <c r="B3" t="s" s="6">
         <v>7</v>
@@ -1487,276 +1510,323 @@
       <c r="C3" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" t="s" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" ht="36" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="F3" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="9">
+    </row>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="22" customHeight="1">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="13">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="11">
         <v>8</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="D5" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="36" customHeight="1">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="13">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="22" customHeight="1">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="22" customHeight="1">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="13">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="22" customHeight="1">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="13">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="22" customHeight="1">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="13">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="22" customHeight="1">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="E4" t="s" s="10">
+      <c r="B11" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s" s="11">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="36" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="36" customHeight="1">
-      <c r="A6" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s" s="9">
+      <c r="D11" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="22" customHeight="1">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" ht="22" customHeight="1">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="13">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" ht="36" customHeight="1">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="C6" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="22" customHeight="1">
-      <c r="A7" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="36" customHeight="1">
-      <c r="A8" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s" s="10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="36" customHeight="1">
-      <c r="A9" t="s" s="11">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" ht="36" customHeight="1">
-      <c r="A10" t="s" s="11">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" ht="22" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s" s="10">
+      <c r="B14" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="12">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s" s="12">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" ht="22" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s" s="10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" ht="22" customHeight="1">
-      <c r="A13" t="s" s="11">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s" s="10">
+      <c r="F14" t="s" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" ht="36" customHeight="1">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="12">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" t="s" s="11">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s" s="10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" t="s" s="11">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s" s="10">
-        <v>41</v>
+      <c r="E15" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s" s="12">
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
